--- a/biology/Botanique/Frankenia_capitata/Frankenia_capitata.xlsx
+++ b/biology/Botanique/Frankenia_capitata/Frankenia_capitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frankenia capitata (Frankenia laevis) est une espèce de plante vivace de la famille des Frankeniaceae, originaire des Îles Canaries et de Madère
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Frankenia laevis var. capitata (Webb &amp; Berthel.) Pit. (1909)</t>
         </is>
@@ -541,9 +555,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente sur toutes les îles Canaries et à Madère[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente sur toutes les îles Canaries et à Madère.
 </t>
         </is>
       </c>
@@ -572,12 +588,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée, formant des touffes denses, aux fleurs roses solitaires.
 			Frankenia capitata dans les rochers de la Montaña Roja à  Lanzarote
 			Sur la plage des Salines de Janubio
-Frankenia capitata se différencie de Frankenia pulverenta par ses feuilles linéaires avec des crôutes blanchâtres[1].
+Frankenia capitata se différencie de Frankenia pulverenta par ses feuilles linéaires avec des crôutes blanchâtres.
 </t>
         </is>
       </c>
